--- a/downloads/funcao-procv-com-duas-condicoes-como-usar.xlsx
+++ b/downloads/funcao-procv-com-duas-condicoes-como-usar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Dropbox\Public\erredoze\postagens\procv_duas_condicoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\websites\excelnaweb.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="GENERALIDADES">#REF!</definedName>
     <definedName name="ICMS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
@@ -1211,7 +1211,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3107" name="Conector de seta reta 2"/>
+        <xdr:cNvPr id="3107" name="Conector de seta reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000230C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -1264,7 +1270,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3108" name="Conector de seta reta 3"/>
+        <xdr:cNvPr id="3108" name="Conector de seta reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000240C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -1317,7 +1329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3110" name="AutoShape 38"/>
+        <xdr:cNvPr id="3110" name="AutoShape 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000260C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -1357,226 +1375,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82451</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Grupo 4"/>
+        <xdr:cNvPr id="8" name="Agrupar 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E996E54D-5DF0-4E73-A96D-F9057FDE2F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4333876" y="104774"/>
-          <a:ext cx="4324350" cy="2466976"/>
-          <a:chOff x="6648450" y="447675"/>
-          <a:chExt cx="4848225" cy="2409825"/>
+          <a:off x="4591050" y="257175"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Retângulo de cantos arredondados 5">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="447675"/>
-            <a:ext cx="4848225" cy="2409825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Este exemplo te Ajudou? Colabore Conosco!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Faça uma Doação!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ajude-nos a continuar ofertando conteúdo de qualidade </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>GRATUITAMENTE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>. Ficaremos muito agradecidos pela sua contribuição voluntária de qualquer valor!</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Imagem 6">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
+          <xdr:cNvPr id="9" name="Imagem 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3460E766-A4BA-48CB-A20D-95C326D84A8B}"/>
+              </a:ext>
+            </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
@@ -1596,14 +1433,61 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8067675" y="2219325"/>
-            <a:ext cx="1990725" cy="457200"/>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Retângulo 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2EBE48-ACEE-4214-B01B-4430D158E185}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2434,7 +2318,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/downloads/funcao-procv-com-duas-condicoes-como-usar.xlsx
+++ b/downloads/funcao-procv-com-duas-condicoes-como-usar.xlsx
@@ -1373,124 +1373,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82451</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Agrupar 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E996E54D-5DF0-4E73-A96D-F9057FDE2F37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4591050" y="257175"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Imagem 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3460E766-A4BA-48CB-A20D-95C326D84A8B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Retângulo 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2EBE48-ACEE-4214-B01B-4430D158E185}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2317,7 +2199,7 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
